--- a/eval/src/test/resources/RATE_COM_HC.xlsx
+++ b/eval/src/test/resources/RATE_COM_HC.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\rainforest\product\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzheng/Documents/workspace/rainforest/eval/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{90F64FBE-9809-4DBE-8472-13D7E2882ED9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6A360-287A-4B49-A6EC-50130CCD0F12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RATE_SPEC" sheetId="1" r:id="rId1"/>
     <sheet name="RATES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -185,7 +184,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,9 +286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,11 +571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
@@ -587,7 +583,7 @@
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +611,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,7 +622,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,7 +633,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,7 +644,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -665,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -680,14 +676,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -702,19 +700,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -725,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -736,7 +734,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -747,7 +745,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,7 +756,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -769,7 +767,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -780,7 +778,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -791,7 +789,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -802,7 +800,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -813,7 +811,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -824,7 +822,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -835,7 +833,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -846,7 +844,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -857,7 +855,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -868,7 +866,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -879,7 +877,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -890,7 +888,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -901,7 +899,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -912,7 +910,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -923,7 +921,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -934,7 +932,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -945,7 +943,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -956,7 +954,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -967,7 +965,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -978,7 +976,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -988,216 +986,6 @@
       <c r="C25" s="5">
         <v>2082</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
